--- a/Timesheets/kjohnson5.xlsx
+++ b/Timesheets/kjohnson5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Code Review, Team Meeting</t>
+  </si>
+  <si>
+    <t>05/20/2015 Wed</t>
+  </si>
+  <si>
+    <t>3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Meeting w/ Shannon, Fixing Database Schema</t>
+  </si>
+  <si>
+    <t>05/22/2015 Fri</t>
+  </si>
+  <si>
+    <t>3:30pm-7:00pm</t>
+  </si>
+  <si>
+    <t>GUI Changes { Added “Forgot my Code” functionality, Changed College &amp; Major }, Normalized Phones</t>
   </si>
 </sst>
 </file>
@@ -220,8 +238,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -230,7 +248,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5714285714286"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.5510204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
@@ -291,16 +309,32 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>

--- a/Timesheets/kjohnson5.xlsx
+++ b/Timesheets/kjohnson5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>GUI Changes { Added “Forgot my Code” functionality, Changed College &amp; Major }, Normalized Phones</t>
+  </si>
+  <si>
+    <t>Total 8</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -339,7 +342,9 @@
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
